--- a/input/test_1/setup.xlsx
+++ b/input/test_1/setup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam.secher\source\repos\pnp-opt\input\test_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F7595F-FF94-4910-98F4-E531625D4384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32AA967-B6A0-400E-B32B-FFA185B68CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="3" xr2:uid="{44D22B83-19E5-49DB-9A86-332D4007F8A2}"/>
   </bookViews>
@@ -536,7 +536,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -618,7 +618,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -746,7 +746,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/input/test_1/setup.xlsx
+++ b/input/test_1/setup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam.secher\source\repos\pnp-opt\input\test_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32AA967-B6A0-400E-B32B-FFA185B68CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79987D4-2B4F-4BA8-8935-F8FEA79FDE02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="3" xr2:uid="{44D22B83-19E5-49DB-9A86-332D4007F8A2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{44D22B83-19E5-49DB-9A86-332D4007F8A2}"/>
   </bookViews>
   <sheets>
     <sheet name="machine" sheetId="1" r:id="rId1"/>
@@ -535,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BAFECAB-9894-4316-8F2A-02B6AAA65DCF}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -573,7 +573,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>500</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -745,7 +745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB3C4590-047C-4F14-9E24-EF18F41AFAFA}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>

--- a/input/test_1/setup.xlsx
+++ b/input/test_1/setup.xlsx
@@ -2,27 +2,25 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam.secher\source\repos\pnp-opt\input\test_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79987D4-2B4F-4BA8-8935-F8FEA79FDE02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51AC1B31-695B-429E-9299-FEFB4562CF71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{44D22B83-19E5-49DB-9A86-332D4007F8A2}"/>
+    <workbookView xWindow="28680" yWindow="-7215" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="machine" sheetId="1" r:id="rId1"/>
     <sheet name="feeders" sheetId="2" r:id="rId2"/>
     <sheet name="jobs" sheetId="3" r:id="rId3"/>
     <sheet name="placements" sheetId="4" r:id="rId4"/>
+    <sheet name="tools" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -39,29 +37,56 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="77">
+  <si>
+    <t>property</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
   <si>
     <t>head_count</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>head_capacity</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>travel_speed_mm_s</t>
   </si>
   <si>
+    <t>100</t>
+  </si>
+  <si>
     <t>pick_time_s</t>
   </si>
   <si>
+    <t>0.25</t>
+  </si>
+  <si>
     <t>place_time_s</t>
   </si>
   <si>
+    <t>0.3</t>
+  </si>
+  <si>
     <t>vision_align_s</t>
   </si>
   <si>
+    <t>0.1</t>
+  </si>
+  <si>
     <t>pcb_changeover_s</t>
   </si>
   <si>
+    <t>20</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -74,105 +99,186 @@
     <t>pickup_y_mm</t>
   </si>
   <si>
+    <t>nozzle_type</t>
+  </si>
+  <si>
     <t>F1</t>
   </si>
   <si>
+    <t>Resistor</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
     <t>F2</t>
   </si>
   <si>
+    <t>Capacitor</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
     <t>F3</t>
   </si>
   <si>
-    <t>Resistor</t>
-  </si>
-  <si>
-    <t>Capacitor</t>
-  </si>
-  <si>
     <t>Microchip</t>
   </si>
   <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>due_time_s</t>
+  </si>
+  <si>
     <t>J1</t>
   </si>
   <si>
+    <t>SensorBoard</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3600</t>
+  </si>
+  <si>
     <t>J2</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>SensorBoard</t>
-  </si>
-  <si>
     <t>ControlBoard</t>
   </si>
   <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>due_time_s</t>
+    <t>2400</t>
   </si>
   <si>
     <t>job_id</t>
   </si>
   <si>
+    <t>x_mm</t>
+  </si>
+  <si>
+    <t>y_mm</t>
+  </si>
+  <si>
     <t>P1</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>P2</t>
   </si>
   <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
     <t>P3</t>
   </si>
   <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
     <t>P4</t>
   </si>
   <si>
+    <t>55</t>
+  </si>
+  <si>
     <t>P5</t>
   </si>
   <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
     <t>P6</t>
   </si>
   <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
     <t>P7</t>
   </si>
   <si>
+    <t>24</t>
+  </si>
+  <si>
     <t>P8</t>
   </si>
   <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
     <t>P9</t>
   </si>
   <si>
-    <t>x_mm</t>
-  </si>
-  <si>
-    <t>y_mm</t>
-  </si>
-  <si>
-    <t>property</t>
-  </si>
-  <si>
-    <t>value</t>
+    <t>42</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>54</t>
   </si>
   <si>
     <t>P10</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>nozzle_changeover_s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -204,7 +310,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -227,44 +333,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -292,31 +398,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -344,23 +433,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -372,136 +444,180 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
+                <a:tint val="100000"/>
                 <a:shade val="100000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="phClr"/>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
     <a:lnDef>
       <a:spPr/>
       <a:bodyPr/>
@@ -523,576 +639,632 @@
     </a:lnDef>
   </a:objectDefaults>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BAFECAB-9894-4316-8F2A-02B6AAA65DCF}">
-  <dimension ref="A1:B8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="16.81640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>100</v>
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>0.25</v>
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0.3</v>
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>0.1</v>
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="B8">
-        <v>20</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A9:B9 A1:B7" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E749A8-1D6D-42C5-A124-962033D462BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <v>10</v>
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3">
-        <v>60</v>
-      </c>
-      <c r="D3">
-        <v>10</v>
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4">
-        <v>35</v>
-      </c>
-      <c r="D4">
-        <v>10</v>
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A1:D4" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9A30C22-82DF-4B90-A229-3B547DB5A8F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>3600</v>
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>2400</v>
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A1:D3" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB3C4590-047C-4F14-9E24-EF18F41AFAFA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2">
-        <v>12</v>
-      </c>
-      <c r="E2">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3">
-        <v>18</v>
-      </c>
-      <c r="E3">
         <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4">
-        <v>25</v>
-      </c>
-      <c r="E4">
-        <v>26</v>
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5">
-        <v>55</v>
-      </c>
-      <c r="E5">
-        <v>35</v>
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6">
-        <v>62</v>
-      </c>
-      <c r="E6">
-        <v>38</v>
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7">
-        <v>40</v>
-      </c>
-      <c r="E7">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8">
-        <v>28</v>
-      </c>
-      <c r="E8">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9">
-        <v>58</v>
-      </c>
-      <c r="E9">
-        <v>30</v>
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10">
-        <v>42</v>
-      </c>
-      <c r="E10">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11">
-        <v>14</v>
-      </c>
-      <c r="E11">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12">
         <v>22</v>
       </c>
-      <c r="E12">
-        <v>26</v>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13">
-        <v>58</v>
-      </c>
-      <c r="E13">
-        <v>32</v>
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14">
-        <v>66</v>
-      </c>
-      <c r="E14">
-        <v>40</v>
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
         <v>29</v>
       </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15">
-        <v>42</v>
-      </c>
-      <c r="E15">
-        <v>30</v>
+      <c r="D15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16">
-        <v>20</v>
-      </c>
-      <c r="E16">
         <v>22</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17">
-        <v>62</v>
-      </c>
-      <c r="E17">
-        <v>34</v>
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18">
-        <v>44</v>
-      </c>
-      <c r="E18">
-        <v>34</v>
+        <v>29</v>
+      </c>
+      <c r="D18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19">
-        <v>54</v>
-      </c>
-      <c r="E19">
-        <v>42</v>
+        <v>22</v>
+      </c>
+      <c r="D19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20">
         <v>22</v>
       </c>
-      <c r="E20">
-        <v>13</v>
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A1:E20" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE11E5D3-5698-4E37-B2B7-A51C80009895}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>